--- a/loaded_influencer_data/vlogsfay.1/vlogsfay.1_video.xlsx
+++ b/loaded_influencer_data/vlogsfay.1/vlogsfay.1_video.xlsx
@@ -506,16 +506,16 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vlogsfay.1/photo/7480705973577960735</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>627</v>
+        <v>643</v>
       </c>
       <c r="C2" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D2" t="n">
         <v>6</v>
@@ -528,19 +528,19 @@
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>18.34130781499202</v>
+        <v>18.04043545878693</v>
       </c>
       <c r="I2" t="n">
-        <v>17.38437001594896</v>
+        <v>17.10730948678071</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9569377990430622</v>
+        <v>0.9331259720062209</v>
       </c>
       <c r="L2" t="n">
-        <v>1.594896331738437</v>
+        <v>1.555209953343701</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -552,16 +552,16 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vlogsfay.1/photo/7479945127562071339</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -578,16 +578,16 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>20</v>
+        <v>19.81132075471698</v>
       </c>
       <c r="I3" t="n">
-        <v>18</v>
+        <v>17.92452830188679</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -602,16 +602,16 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vlogsfay.1/video/7478009898626796830</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>630</v>
+        <v>645</v>
       </c>
       <c r="C4" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D4" t="n">
         <v>8</v>
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -628,19 +628,19 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>13.01587301587302</v>
+        <v>13.02325581395349</v>
       </c>
       <c r="I4" t="n">
-        <v>11.74603174603175</v>
+        <v>11.78294573643411</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1.26984126984127</v>
+        <v>1.24031007751938</v>
       </c>
       <c r="L4" t="n">
-        <v>1.26984126984127</v>
+        <v>1.395348837209302</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -652,13 +652,13 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vlogsfay.1/video/7475768622883802399</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="C5" t="n">
         <v>127</v>
@@ -678,19 +678,19 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>18.33550065019506</v>
+        <v>18.21705426356589</v>
       </c>
       <c r="I5" t="n">
-        <v>16.5149544863459</v>
+        <v>16.40826873385013</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1.820546163849155</v>
+        <v>1.808785529715762</v>
       </c>
       <c r="L5" t="n">
-        <v>1.040312093628089</v>
+        <v>1.03359173126615</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -702,245 +702,245 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vlogsfay.1/video/7475746828848450862</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="C6" t="n">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>#fyp #blowup #grwm</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>11.46953405017921</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10.57347670250896</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.8960573476702508</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.7168458781362007</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@vlogsfay.1/video/7474766274766195999</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>850</v>
+      </c>
+      <c r="C7" t="n">
+        <v>148</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>8</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>@Bubble Skincare @byoma #fyp #blowup #grwm</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>25.49728752260398</v>
-      </c>
-      <c r="I6" t="n">
-        <v>22.96564195298373</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.531645569620253</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.446654611211573</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2025-02-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@vlogsfay.1/video/7474766274766195999</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>845</v>
-      </c>
-      <c r="C7" t="n">
-        <v>59</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>#fyp #haul #grwm #blowup</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>18.23529411764706</v>
+      </c>
+      <c r="I7" t="n">
+        <v>17.41176470588235</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.823529411764706</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.9411764705882352</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@vlogsfay.1/video/7473195533264457006</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>626</v>
+      </c>
+      <c r="C8" t="n">
+        <v>76</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>@byoma #fyp #grwm #blowup</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>12.46006389776358</v>
+      </c>
+      <c r="I8" t="n">
+        <v>12.1405750798722</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.3194888178913738</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.118210862619808</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@vlogsfay.1/video/7472973928894401823</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>677</v>
+      </c>
+      <c r="C9" t="n">
+        <v>103</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>#fyp #grwm #blowup</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>15.80502215657312</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15.21418020679468</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.5908419497784343</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.4431314623338257</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-02-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@vlogsfay.1/video/7472815984844246302</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1089</v>
+      </c>
+      <c r="C10" t="n">
+        <v>107</v>
+      </c>
+      <c r="D10" t="n">
         <v>5</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>#fyp #blowup #grwm</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7.573964497041421</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6.982248520710059</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.591715976331361</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.4733727810650888</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>2025-02-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@vlogsfay.1/video/7473195533264457006</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>624</v>
-      </c>
-      <c r="C8" t="n">
-        <v>148</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>7</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>#fyp #haul #grwm #blowup</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>24.83974358974359</v>
-      </c>
-      <c r="I8" t="n">
-        <v>23.71794871794872</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.121794871794872</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.282051282051282</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>2025-02-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@vlogsfay.1/video/7472973928894401823</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>674</v>
-      </c>
-      <c r="C9" t="n">
-        <v>77</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>@byoma #fyp #grwm #blowup</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>11.72106824925816</v>
-      </c>
-      <c r="I9" t="n">
-        <v>11.42433234421365</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.2967359050445104</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.038575667655786</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>2025-02-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@vlogsfay.1/video/7472815984844246302</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1087</v>
-      </c>
-      <c r="C10" t="n">
-        <v>104</v>
-      </c>
-      <c r="D10" t="n">
-        <v>4</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>@byoma #fyp #grwm #blowup</t>
+          <t>#fyp #grwm #blowup</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9.935602575896963</v>
+        <v>10.28466483011938</v>
       </c>
       <c r="I10" t="n">
-        <v>9.567617295308189</v>
+        <v>9.82552800734619</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3679852805887764</v>
+        <v>0.4591368227731864</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2759889604415823</v>
+        <v>0.642791551882461</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vlogsfay.1/video/7472562917397794078</t>
         </is>
@@ -1002,7 +1002,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vlogsfay.1/video/7472519867376176414</t>
         </is>
@@ -1052,7 +1052,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vlogsfay.1/video/7472376155631340830</t>
         </is>
@@ -1102,7 +1102,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vlogsfay.1/photo/7472362140058373406</t>
         </is>
@@ -1152,7 +1152,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vlogsfay.1/video/7472109071412235551</t>
         </is>
@@ -1202,7 +1202,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vlogsfay.1/video/7472098850061290783</t>
         </is>
@@ -1252,7 +1252,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vlogsfay.1/video/7472092976236219679</t>
         </is>
@@ -1302,7 +1302,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vlogsfay.1/video/7471783950902463775</t>
         </is>
@@ -1352,7 +1352,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vlogsfay.1/photo/7471682214883822878</t>
         </is>
@@ -1402,7 +1402,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vlogsfay.1/video/7471341972553207070</t>
         </is>
@@ -1452,7 +1452,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vlogsfay.1/photo/7471126899335466271</t>
         </is>
